--- a/archivos/JHIMBO-ROJO1-ROJO2-ROJO3.xlsx
+++ b/archivos/JHIMBO-ROJO1-ROJO2-ROJO3.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ventasite\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE655FA7-077C-4713-B36D-497ABD83E5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -235,7 +233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,18 +296,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -324,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -333,21 +319,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -628,11 +603,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +620,7 @@
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="149.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="116.5703125" customWidth="1"/>
     <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
   </cols>
@@ -692,7 +668,7 @@
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="7">
@@ -713,16 +689,16 @@
       <c r="H2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -730,7 +706,7 @@
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="7">
@@ -751,16 +727,16 @@
       <c r="H3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -768,7 +744,7 @@
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="7">
@@ -789,16 +765,16 @@
       <c r="H4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -806,7 +782,7 @@
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="7">
@@ -827,16 +803,16 @@
       <c r="H5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -844,7 +820,7 @@
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="7">
@@ -865,16 +841,16 @@
       <c r="H6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -882,7 +858,7 @@
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="7">
@@ -903,16 +879,16 @@
       <c r="H7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -920,7 +896,7 @@
       <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="7">
@@ -941,16 +917,16 @@
       <c r="H8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -958,7 +934,7 @@
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="7">
@@ -979,16 +955,16 @@
       <c r="H9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -996,7 +972,7 @@
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="7">
@@ -1017,16 +993,16 @@
       <c r="H10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1034,7 +1010,7 @@
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="7">
@@ -1055,16 +1031,16 @@
       <c r="H11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1072,7 +1048,7 @@
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="7">
@@ -1093,16 +1069,16 @@
       <c r="H12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1110,7 +1086,7 @@
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="7">
@@ -1131,16 +1107,16 @@
       <c r="H13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1148,7 +1124,7 @@
       <c r="A14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="7">
@@ -1169,16 +1145,16 @@
       <c r="H14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1186,7 +1162,7 @@
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="7">
@@ -1207,838 +1183,21 @@
       <c r="H15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="5"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="5"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="5"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="5"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="20"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="20"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="20"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="20"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="20"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="20"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="20"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="20"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="21"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="21"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D44" s="21"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D45" s="21"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D46" s="21"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D47" s="21"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D48" s="21"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-    </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D49" s="21"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-    </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D50" s="21"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-    </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D51" s="21"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D52" s="21"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D53" s="21"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D54" s="21"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-    </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D55" s="21"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-    </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D56" s="21"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-    </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D57" s="21"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-    </row>
-    <row r="58" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D58" s="21"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-    </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D59" s="21"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-    </row>
-    <row r="60" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D60" s="21"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-    </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D61" s="21"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-    </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-    </row>
-    <row r="63" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-    </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D77" s="21"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="22"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="22"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="22"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="22"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="22"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="22"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="22"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="22"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="22"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D87" s="21"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D88" s="21"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
+      <c r="L15" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7443CA8-A6AB-42A6-BC69-AAC4483D4FDF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>